--- a/tabular/eve/parvovirinae/epv-unc-parvo-side-data.xlsx
+++ b/tabular/eve/parvovirinae/epv-unc-parvo-side-data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10314"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/DNAss/Parvoviridae-GLUE/tabular/eve/parvovirinae/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D9F5B04B-B1EA-9A4D-86EE-FEEA6225F05B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9661C6AD-F699-424C-A61C-A9C881F2B4B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11980" yWindow="5900" windowWidth="27640" windowHeight="16940" xr2:uid="{41A86ADC-D836-2C44-80C5-76DC906965B4}"/>
   </bookViews>
@@ -36,9 +36,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="62">
   <si>
-    <t>dependo.500-Tarsius_syrichta</t>
-  </si>
-  <si>
     <t>dependo.500-eHV.Carlito</t>
   </si>
   <si>
@@ -87,9 +84,6 @@
     <t>Dependoparvovirus</t>
   </si>
   <si>
-    <t>dependo.500-Mustela_erminea</t>
-  </si>
-  <si>
     <t>dependo.500-eHV.mustela</t>
   </si>
   <si>
@@ -220,6 +214,12 @@
   </si>
   <si>
     <t>virus_genus</t>
+  </si>
+  <si>
+    <t>parvovirinae.94-eHV.mustela</t>
+  </si>
+  <si>
+    <t>parvovirinae.94-eHV.carlito</t>
   </si>
 </sst>
 </file>
@@ -243,7 +243,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -268,6 +268,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -283,9 +289,6 @@
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -297,6 +300,9 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -615,312 +621,315 @@
   <dimension ref="A1:AG3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="26" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="D1" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="E1" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="F1" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="G1" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="H1" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="I1" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="J1" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="K1" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="L1" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="M1" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="N1" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="O1" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="P1" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="Q1" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="R1" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="S1" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="R1" s="6" t="s">
+      <c r="T1" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="S1" s="6" t="s">
+      <c r="U1" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="T1" s="6" t="s">
+      <c r="V1" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="U1" s="6" t="s">
+      <c r="W1" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="V1" s="6" t="s">
+      <c r="X1" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="W1" s="6" t="s">
+      <c r="Y1" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="X1" s="6" t="s">
+      <c r="Z1" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="Y1" s="6" t="s">
+      <c r="AA1" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="Z1" s="6" t="s">
+      <c r="AB1" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="AA1" s="6" t="s">
+      <c r="AC1" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="AB1" s="6" t="s">
+      <c r="AD1" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="AC1" s="6" t="s">
+      <c r="AE1" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="AD1" s="6" t="s">
+      <c r="AF1" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="AE1" s="6" t="s">
+      <c r="AG1" s="5" t="s">
         <v>59</v>
-      </c>
-      <c r="AF1" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="AG1" s="6" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2">
+        <v>500</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3">
-        <v>500</v>
-      </c>
-      <c r="D2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="F2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="G2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="H2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="I2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="J2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="K2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="L2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="L2" s="4" t="s">
+      <c r="M2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="N2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N2" s="4" t="s">
+      <c r="O2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="O2" s="4" t="s">
+      <c r="P2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="P2" s="4" t="s">
+      <c r="Q2" s="3">
+        <v>925</v>
+      </c>
+      <c r="R2" s="3">
+        <v>1968</v>
+      </c>
+      <c r="S2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="Q2" s="4">
-        <v>925</v>
-      </c>
-      <c r="R2" s="4">
-        <v>1968</v>
-      </c>
-      <c r="S2" s="4" t="s">
+      <c r="T2" s="3">
+        <v>1</v>
+      </c>
+      <c r="U2" s="3">
+        <v>175</v>
+      </c>
+      <c r="V2" s="3">
+        <v>1</v>
+      </c>
+      <c r="W2" s="3">
+        <v>525</v>
+      </c>
+      <c r="X2" s="3">
+        <v>175</v>
+      </c>
+      <c r="Y2" s="3">
+        <v>314</v>
+      </c>
+      <c r="Z2" s="3">
+        <v>98.286000000000001</v>
+      </c>
+      <c r="AA2" s="3">
+        <v>9.59</v>
+      </c>
+      <c r="AB2" s="3">
+        <v>105</v>
+      </c>
+      <c r="AC2" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD2" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="T2" s="4">
-        <v>1</v>
-      </c>
-      <c r="U2" s="4">
-        <v>175</v>
-      </c>
-      <c r="V2" s="4">
-        <v>1</v>
-      </c>
-      <c r="W2" s="4">
-        <v>525</v>
-      </c>
-      <c r="X2" s="4">
-        <v>175</v>
-      </c>
-      <c r="Y2" s="4">
-        <v>314</v>
-      </c>
-      <c r="Z2" s="4">
-        <v>98.286000000000001</v>
-      </c>
-      <c r="AA2" s="4">
-        <v>9.59</v>
-      </c>
-      <c r="AB2" s="4">
-        <v>105</v>
-      </c>
-      <c r="AC2" s="4">
-        <v>0</v>
-      </c>
-      <c r="AD2" s="4">
-        <v>0</v>
-      </c>
-      <c r="AE2" s="4" t="s">
+      <c r="AF2" s="3">
+        <v>1044</v>
+      </c>
+      <c r="AG2" s="3" t="s">
         <v>15</v>
-      </c>
-      <c r="AF2" s="4">
-        <v>1044</v>
-      </c>
-      <c r="AG2" s="4" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="2">
+        <v>500</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="F3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="3">
-        <v>500</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="4" t="s">
+      <c r="H3" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="G3" s="4" t="s">
+      <c r="I3" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="J3" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="K3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L3" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="M3" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="K3" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="L3" s="4" t="s">
+      <c r="N3" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="M3" s="4" t="s">
+      <c r="O3" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="N3" s="4" t="s">
+      <c r="P3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q3" s="3">
+        <v>69181</v>
+      </c>
+      <c r="R3" s="3">
+        <v>70593</v>
+      </c>
+      <c r="S3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="T3" s="3">
+        <v>1</v>
+      </c>
+      <c r="U3" s="3">
+        <v>450</v>
+      </c>
+      <c r="V3" s="3">
+        <v>1</v>
+      </c>
+      <c r="W3" s="3">
+        <v>1350</v>
+      </c>
+      <c r="X3" s="3">
+        <v>450</v>
+      </c>
+      <c r="Y3" s="3">
+        <v>892</v>
+      </c>
+      <c r="Z3" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA3" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB3" s="3">
+        <v>1</v>
+      </c>
+      <c r="AC3" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD3" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE3" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="O3" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="P3" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q3" s="4">
-        <v>69181</v>
-      </c>
-      <c r="R3" s="4">
-        <v>70593</v>
-      </c>
-      <c r="S3" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="T3" s="4">
-        <v>1</v>
-      </c>
-      <c r="U3" s="4">
-        <v>450</v>
-      </c>
-      <c r="V3" s="4">
-        <v>1</v>
-      </c>
-      <c r="W3" s="4">
-        <v>1350</v>
-      </c>
-      <c r="X3" s="4">
-        <v>450</v>
-      </c>
-      <c r="Y3" s="4">
-        <v>892</v>
-      </c>
-      <c r="Z3" s="4">
-        <v>100</v>
-      </c>
-      <c r="AA3" s="4">
-        <v>0</v>
-      </c>
-      <c r="AB3" s="4">
-        <v>1</v>
-      </c>
-      <c r="AC3" s="4">
-        <v>0</v>
-      </c>
-      <c r="AD3" s="4">
-        <v>0</v>
-      </c>
-      <c r="AE3" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="AF3" s="4">
+      <c r="AF3" s="3">
         <v>1413</v>
       </c>
-      <c r="AG3" s="4" t="s">
-        <v>16</v>
+      <c r="AG3" s="3" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/tabular/eve/parvovirinae/epv-unc-parvo-side-data.xlsx
+++ b/tabular/eve/parvovirinae/epv-unc-parvo-side-data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/DNAss/Parvoviridae-GLUE/tabular/eve/parvovirinae/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9661C6AD-F699-424C-A61C-A9C881F2B4B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80343EE0-02C6-A346-893C-4964F0CC16CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11980" yWindow="5900" windowWidth="27640" windowHeight="16940" xr2:uid="{41A86ADC-D836-2C44-80C5-76DC906965B4}"/>
   </bookViews>
@@ -621,7 +621,7 @@
   <dimension ref="A1:AG3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="C2" sqref="A1:AG3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
